--- a/final/tests/4.3.2_test_set.xlsx
+++ b/final/tests/4.3.2_test_set.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gagefleming/university_of_london/current_courses/agile_software_projects/cm2020/final/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20922CAD-98C6-B14E-803C-7E4A32BCFFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25181B4-A639-104A-A005-C9DD68A668F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4600" yWindow="22100" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="4.3.2 (Jan 26th)" sheetId="8" r:id="rId1"/>
+    <sheet name="4.3.2 (Jan 22nd)" sheetId="8" r:id="rId1"/>
     <sheet name="4.3.2 (EMPTY)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -243,17 +243,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C42221-AE3B-CB4B-BE39-8B43F95C5419}">
   <dimension ref="B1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -670,20 +670,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" s="7"/>
@@ -760,59 +760,59 @@
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="H7" s="9" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="N7" s="9" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="N7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="10" t="s">
@@ -932,37 +932,30 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="N11" s="9" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="N11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="N11:R11"/>
@@ -972,6 +965,13 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="N8:R8"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="O6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -981,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9AA70D-5410-462A-B36C-B35BAA53B98D}">
   <dimension ref="B1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1009,20 +1009,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" s="7"/>
@@ -1099,59 +1099,59 @@
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="H7" s="9" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="N7" s="9" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="N7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="10" t="s">
@@ -1265,30 +1265,38 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="N11" s="9" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="N11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H11:L11"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="N11:R11"/>
     <mergeCell ref="I5:K5"/>
@@ -1297,14 +1305,6 @@
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="N7:R7"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/final/tests/4.3.2_test_set.xlsx
+++ b/final/tests/4.3.2_test_set.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gagefleming/university_of_london/current_courses/agile_software_projects/cm2020/final/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25181B4-A639-104A-A005-C9DD68A668F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA976161-60B7-8C4E-9750-D958C105B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="22100" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.3.2 (Jan 22nd)" sheetId="8" r:id="rId1"/>
-    <sheet name="4.3.2 (EMPTY)" sheetId="2" r:id="rId2"/>
+    <sheet name="4.3.2 (Mar 2nd)" sheetId="9" r:id="rId2"/>
+    <sheet name="4.3.2 (EMPTY)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
   <si>
     <t>Objective and Priority</t>
   </si>
@@ -243,17 +244,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -344,9 +345,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -384,7 +385,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -490,7 +491,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,9 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C42221-AE3B-CB4B-BE39-8B43F95C5419}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -670,20 +672,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" s="7"/>
@@ -760,59 +762,59 @@
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="H7" s="12" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="10" t="s">
@@ -932,27 +934,367 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="H11" s="12" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="N11" s="12" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="N8:R8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C256C144-3A45-DE42-81E4-F6320628AC69}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B1:R11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.6640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="N4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="N7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="N8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="2:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="70" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -977,8 +1319,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9AA70D-5410-462A-B36C-B35BAA53B98D}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1009,20 +1352,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" s="7"/>
@@ -1099,59 +1442,59 @@
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="H7" s="12" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="10" t="s">
@@ -1265,30 +1608,38 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="H11" s="12" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="N11" s="12" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="N7:R7"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="H8:L8"/>
@@ -1297,14 +1648,6 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="N7:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
